--- a/results/Sr90Y90/Sr90Y90_R_30_cm_Nr_2000000000_ISO_model_det1 - Unfolded Fluence Spectrum.xlsx
+++ b/results/Sr90Y90/Sr90Y90_R_30_cm_Nr_2000000000_ISO_model_det1 - Unfolded Fluence Spectrum.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,31 +520,31 @@
         <v>0.2699725673075166</v>
       </c>
       <c r="F2" t="n">
-        <v>290.9915401508194</v>
+        <v>287.9014347606077</v>
       </c>
       <c r="G2" t="n">
-        <v>20.49620221232147</v>
+        <v>13.95553867282598</v>
       </c>
       <c r="H2" t="n">
-        <v>568.0514369323434</v>
+        <v>568.0233158455277</v>
       </c>
       <c r="I2" t="n">
-        <v>1.448032124577614</v>
+        <v>1.39501333473321</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4840357477943731</v>
+        <v>0.4961215955190442</v>
       </c>
       <c r="K2" t="n">
-        <v>2.620573000324357</v>
+        <v>2.59351501783817</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2203102619577513</v>
+        <v>0.2175637707877623</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02854609422899121</v>
+        <v>0.02794169764079556</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4555050249109394</v>
+        <v>0.4585767591284192</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,77 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02014643702979996</v>
+        <v>0.02040894916710109</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01233744882248494</v>
+        <v>0.01260212982147101</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0281343042851547</v>
+        <v>0.02764727434298727</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01874780109040164</v>
+        <v>0.01901252379400226</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0113831197178488</v>
+        <v>0.01165282387365212</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02629463412131341</v>
+        <v>0.02584029357672211</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02005865090910286</v>
+        <v>0.02032407638856586</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01226324791784156</v>
+        <v>0.01253058357237997</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0280383346390388</v>
+        <v>0.0275564169722681</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Beta + Gamma</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>34.28284193674125</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.855929217186839</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.2699725673075166</v>
+      </c>
+      <c r="F4" t="n">
+        <v>287.9218437097748</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13.96814080264745</v>
+      </c>
+      <c r="H4" t="n">
+        <v>568.0509631198706</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.414025858527212</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5077744193926964</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.619355311414892</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2378878471763282</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.04047228121317553</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.4861331761006873</v>
       </c>
     </row>
   </sheetData>

--- a/results/Sr90Y90/Sr90Y90_R_30_cm_Nr_2000000000_ISO_model_det1 - Unfolded Fluence Spectrum.xlsx
+++ b/results/Sr90Y90/Sr90Y90_R_30_cm_Nr_2000000000_ISO_model_det1 - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.2699725673075166</v>
       </c>
       <c r="F2" t="n">
-        <v>287.9014347606077</v>
+        <v>286.6905359754097</v>
       </c>
       <c r="G2" t="n">
-        <v>13.95553867282598</v>
+        <v>22.58042306437388</v>
       </c>
       <c r="H2" t="n">
-        <v>568.0233158455277</v>
+        <v>564.0348173645642</v>
       </c>
       <c r="I2" t="n">
-        <v>1.39501333473321</v>
+        <v>1.391645043379825</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4961215955190442</v>
+        <v>0.4876788257107756</v>
       </c>
       <c r="K2" t="n">
-        <v>2.59351501783817</v>
+        <v>2.532756073445229</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2175637707877623</v>
+        <v>0.2143236358483523</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02794169764079556</v>
+        <v>0.02909335247701602</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4585767591284192</v>
+        <v>0.442366767477136</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02040894916710109</v>
+        <v>0.02057783878571726</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01260212982147101</v>
+        <v>0.01263059561467532</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02764727434298727</v>
+        <v>0.02826543190683595</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01901252379400226</v>
+        <v>0.01915870218695753</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01165282387365212</v>
+        <v>0.01165213413616959</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02584029357672211</v>
+        <v>0.02641194835243531</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02032407638856586</v>
+        <v>0.020491102423409</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01253058357237997</v>
+        <v>0.01255505997234859</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0275564169722681</v>
+        <v>0.02816958245905602</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.2699725673075166</v>
       </c>
       <c r="F4" t="n">
-        <v>287.9218437097748</v>
+        <v>286.7111138141954</v>
       </c>
       <c r="G4" t="n">
-        <v>13.96814080264745</v>
+        <v>22.59305365998856</v>
       </c>
       <c r="H4" t="n">
-        <v>568.0509631198706</v>
+        <v>564.063082796471</v>
       </c>
       <c r="I4" t="n">
-        <v>1.414025858527212</v>
+        <v>1.410803745566783</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5077744193926964</v>
+        <v>0.4993309598469452</v>
       </c>
       <c r="K4" t="n">
-        <v>2.619355311414892</v>
+        <v>2.559168021797665</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2378878471763282</v>
+        <v>0.2348147382717614</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04047228121317553</v>
+        <v>0.04164841244936461</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4861331761006873</v>
+        <v>0.470536349936192</v>
       </c>
     </row>
   </sheetData>

--- a/results/Sr90Y90/Sr90Y90_R_30_cm_Nr_2000000000_ISO_model_det1 - Unfolded Fluence Spectrum.xlsx
+++ b/results/Sr90Y90/Sr90Y90_R_30_cm_Nr_2000000000_ISO_model_det1 - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.2699725673075166</v>
       </c>
       <c r="F2" t="n">
-        <v>286.6905359754097</v>
+        <v>267.863445493107</v>
       </c>
       <c r="G2" t="n">
-        <v>22.58042306437388</v>
+        <v>20.02461998266713</v>
       </c>
       <c r="H2" t="n">
-        <v>564.0348173645642</v>
+        <v>555.9628879047845</v>
       </c>
       <c r="I2" t="n">
-        <v>1.391645043379825</v>
+        <v>1.426082368387081</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4876788257107756</v>
+        <v>0.5264331343036044</v>
       </c>
       <c r="K2" t="n">
-        <v>2.532756073445229</v>
+        <v>2.54411291104781</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2143236358483523</v>
+        <v>0.2153346801364407</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02909335247701602</v>
+        <v>0.03228456974986398</v>
       </c>
       <c r="N2" t="n">
-        <v>0.442366767477136</v>
+        <v>0.4442538880519111</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02057783878571726</v>
+        <v>0.02025071042173724</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01263059561467532</v>
+        <v>0.01354245178581307</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02826543190683595</v>
+        <v>0.02745494690914944</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01915870218695753</v>
+        <v>0.01886812045533984</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01165213413616959</v>
+        <v>0.0125218690743075</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02641194835243531</v>
+        <v>0.02564939419428678</v>
       </c>
       <c r="L3" t="n">
-        <v>0.020491102423409</v>
+        <v>0.02016558230488541</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01255505997234859</v>
+        <v>0.01346568465930349</v>
       </c>
       <c r="N3" t="n">
-        <v>0.02816958245905602</v>
+        <v>0.02736159213845523</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.2699725673075166</v>
       </c>
       <c r="F4" t="n">
-        <v>286.7111138141954</v>
+        <v>267.8836962035288</v>
       </c>
       <c r="G4" t="n">
-        <v>22.59305365998856</v>
+        <v>20.03816243445294</v>
       </c>
       <c r="H4" t="n">
-        <v>564.063082796471</v>
+        <v>555.9903428516936</v>
       </c>
       <c r="I4" t="n">
-        <v>1.410803745566783</v>
+        <v>1.444950488842421</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4993309598469452</v>
+        <v>0.5389550033779119</v>
       </c>
       <c r="K4" t="n">
-        <v>2.559168021797665</v>
+        <v>2.569762305242096</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2348147382717614</v>
+        <v>0.2355002624413261</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04164841244936461</v>
+        <v>0.04575025440916747</v>
       </c>
       <c r="N4" t="n">
-        <v>0.470536349936192</v>
+        <v>0.4716154801903665</v>
       </c>
     </row>
   </sheetData>
